--- a/data/trans_dic/P78C5_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C5_2023-Provincia-trans_dic.xlsx
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>87,73%</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,18; 94,49</t>
+          <t>53,0; 94,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,39; 96,34</t>
+          <t>68,72; 96,34</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>32,73%</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,59; 100,0</t>
+          <t>12,0; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,7</t>
+          <t>0,99; 70,56</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>47,26%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 92,29</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 84,11</t>
+          <t>12,49; 85,43</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>38,82%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>38,97%</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>64,26%</t>
+          <t>64,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>65,16%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,61; 100,0</t>
+          <t>21,4; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,82; 96,35</t>
+          <t>20,81; 96,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,93; 88,31</t>
+          <t>35,07; 87,91</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>96,59%</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,43; 100,0</t>
+          <t>70,68; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,33; 99,65</t>
+          <t>85,01; 99,57</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>79,19%</t>
+          <t>78,18%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>65,4; 90,24</t>
+          <t>64,12; 89,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>64,93; 87,83</t>
+          <t>63,31; 86,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,08; 85,96</t>
+          <t>67,57; 85,05</t>
         </is>
       </c>
     </row>
